--- a/Admin/DonHang/HDKhachHang.xlsx
+++ b/Admin/DonHang/HDKhachHang.xlsx
@@ -15,11 +15,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>HÓA ĐƠN KHÁCH HÀNG</t>
   </si>
   <si>
+    <t>Ngày lập HD:</t>
+  </si>
+  <si>
+    <t>28-11-2021</t>
+  </si>
+  <si>
     <t>Mã hóa đơn</t>
   </si>
   <si>
@@ -53,28 +59,10 @@
     <t>Thành tiền</t>
   </si>
   <si>
-    <t>Hà Anh Quang</t>
-  </si>
-  <si>
-    <t>0364617678</t>
-  </si>
-  <si>
-    <t>Nhận tại cửa hàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11-11-2021 25:14:11</t>
-  </si>
-  <si>
-    <t>16-11-2021</t>
-  </si>
-  <si>
-    <t>Tai nghe Bluetooth Apple AirPods 2 VN/A</t>
-  </si>
-  <si>
-    <t>Phụ kiện</t>
-  </si>
-  <si>
-    <t>3,450,000</t>
+    <t xml:space="preserve"> 01-01-1970 00:00:01</t>
+  </si>
+  <si>
+    <t>01-01-1970</t>
   </si>
   <si>
     <t>Tổng tiền:</t>
@@ -457,7 +445,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3"/>
@@ -468,10 +456,10 @@
     <col min="1" max="1" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="47.131348" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="25.85083" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="15.281982" bestFit="true" customWidth="true" style="0"/>
@@ -483,98 +471,75 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:11">
+      <c r="I2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2">
-        <v>54</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="2">
-        <v>4</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="2">
-        <v>13800000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="3" t="str">
-        <f>SUM(K4:K4)</f>
+      <c r="K4" s="3" t="str">
+        <f>SUM(K4:K3)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Admin/DonHang/HDKhachHang.xlsx
+++ b/Admin/DonHang/HDKhachHang.xlsx
@@ -23,7 +23,7 @@
     <t>Ngày lập HD:</t>
   </si>
   <si>
-    <t>28-11-2021</t>
+    <t>29-11-2021</t>
   </si>
   <si>
     <t>Mã hóa đơn</t>
@@ -472,10 +472,10 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Admin/DonHang/HDKhachHang.xlsx
+++ b/Admin/DonHang/HDKhachHang.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>HÓA ĐƠN KHÁCH HÀNG</t>
   </si>
@@ -59,10 +59,34 @@
     <t>Thành tiền</t>
   </si>
   <si>
-    <t xml:space="preserve"> 01-01-1970 00:00:01</t>
-  </si>
-  <si>
-    <t>01-01-1970</t>
+    <t>Nguyễn Quốc Đạt</t>
+  </si>
+  <si>
+    <t>0384984645</t>
+  </si>
+  <si>
+    <t>Nhận tại cửa hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 08-03-2021 17:14:08</t>
+  </si>
+  <si>
+    <t>12-03-2021</t>
+  </si>
+  <si>
+    <t>Tai nghe Bluetooth Apple AirPods 2 VN/A</t>
+  </si>
+  <si>
+    <t>Phụ kiện</t>
+  </si>
+  <si>
+    <t>3,450,000</t>
+  </si>
+  <si>
+    <t>Củ sạc nhanh Mophie 20w PD Type C</t>
+  </si>
+  <si>
+    <t>250,000</t>
   </si>
   <si>
     <t>Tổng tiền:</t>
@@ -445,7 +469,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3"/>
@@ -454,12 +478,12 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="47.131348" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="15.281982" bestFit="true" customWidth="true" style="0"/>
@@ -515,24 +539,78 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6</v>
+      </c>
       <c r="J4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="3" t="str">
-        <f>SUM(K4:K3)</f>
+        <v>21</v>
+      </c>
+      <c r="K4" s="2">
+        <v>20700000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="3" t="str">
+        <f>SUM(K4:K5)</f>
         <v>0</v>
       </c>
     </row>

--- a/Admin/DonHang/HDKhachHang.xlsx
+++ b/Admin/DonHang/HDKhachHang.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>HÓA ĐƠN KHÁCH HÀNG</t>
   </si>
@@ -59,34 +59,28 @@
     <t>Thành tiền</t>
   </si>
   <si>
-    <t>Nguyễn Quốc Đạt</t>
-  </si>
-  <si>
-    <t>0384984645</t>
-  </si>
-  <si>
-    <t>Nhận tại cửa hàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 08-03-2021 17:14:08</t>
-  </si>
-  <si>
-    <t>12-03-2021</t>
-  </si>
-  <si>
-    <t>Tai nghe Bluetooth Apple AirPods 2 VN/A</t>
+    <t xml:space="preserve">Phan Anh Tú </t>
+  </si>
+  <si>
+    <t>0979605611</t>
+  </si>
+  <si>
+    <t>Đống Đa - Hà Nội</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11-05-2021 05:48:21</t>
+  </si>
+  <si>
+    <t>15-05-2021</t>
+  </si>
+  <si>
+    <t>Tai nghe không dây Samsung Galaxy Buds 2</t>
   </si>
   <si>
     <t>Phụ kiện</t>
   </si>
   <si>
-    <t>3,450,000</t>
-  </si>
-  <si>
-    <t>Củ sạc nhanh Mophie 20w PD Type C</t>
-  </si>
-  <si>
-    <t>250,000</t>
+    <t>2,990,000</t>
   </si>
   <si>
     <t>Tổng tiền:</t>
@@ -469,7 +463,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3"/>
@@ -478,12 +472,12 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="19.995117" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="47.131348" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="48.273926" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="15.281982" bestFit="true" customWidth="true" style="0"/>
@@ -540,7 +534,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
@@ -564,13 +558,13 @@
         <v>20</v>
       </c>
       <c r="I4" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K4" s="2">
-        <v>20700000</v>
+        <v>8970000</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -580,37 +574,14 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="2">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="3" t="str">
-        <f>SUM(K4:K5)</f>
+      <c r="K5" s="3" t="str">
+        <f>SUM(K4:K4)</f>
         <v>0</v>
       </c>
     </row>
